--- a/EmissionFactors.xlsx
+++ b/EmissionFactors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F356A46-5E89-42FF-8EA2-223A6C9E0748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE6185-5E8E-4AC0-BB12-6F1F48A97584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="-17055" windowWidth="25605" windowHeight="14325" activeTab="1" xr2:uid="{F7D82C8E-DCA0-4D7B-A715-D4A1F93CE55E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F7D82C8E-DCA0-4D7B-A715-D4A1F93CE55E}"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1377">
   <si>
     <t>Source GHG: IPPC National GHG Guideline 2006 - kTon/PJ = ton/TJ</t>
   </si>
@@ -2252,9 +2252,6 @@
   </si>
   <si>
     <t xml:space="preserve">Industry-CP-Electricity                           </t>
-  </si>
-  <si>
-    <t>ICPGAS</t>
   </si>
   <si>
     <t xml:space="preserve">Industry-CP-Gas                                   </t>
@@ -4910,10 +4907,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -5245,7 +5242,7 @@
         <v xml:space="preserve">Industry - Iron and Steel - Coking coal           </v>
       </c>
       <c r="B13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C13" s="1">
         <f>C12*37.8%</f>
@@ -5364,7 +5361,7 @@
         <v xml:space="preserve">Power Sector Coal low grade - waterberg           </v>
       </c>
       <c r="B16" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C16" s="1">
         <v>96.25</v>
@@ -5401,7 +5398,7 @@
         <v>#N/A</v>
       </c>
       <c r="B17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C17" s="1">
         <v>96.25</v>
@@ -5438,7 +5435,7 @@
         <v>#N/A</v>
       </c>
       <c r="B18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C18" s="1">
         <v>96.25</v>
@@ -5475,7 +5472,7 @@
         <v>#N/A</v>
       </c>
       <c r="B19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C19" s="1">
         <v>96.25</v>
@@ -5512,7 +5509,7 @@
         <v>Matla Coal</v>
       </c>
       <c r="B20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C20" s="1">
         <v>96.25</v>
@@ -5549,7 +5546,7 @@
         <v>#N/A</v>
       </c>
       <c r="B21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C21" s="1">
         <v>96.25</v>
@@ -5586,7 +5583,7 @@
         <v>Kriel Coal</v>
       </c>
       <c r="B22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C22" s="1">
         <v>96.25</v>
@@ -5660,7 +5657,7 @@
         <v>#N/A</v>
       </c>
       <c r="B24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C24" s="1">
         <v>96.25</v>
@@ -5697,7 +5694,7 @@
         <v xml:space="preserve"> Arnot Coal</v>
       </c>
       <c r="B25" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C25" s="1">
         <v>96.25</v>
@@ -5734,7 +5731,7 @@
         <v>#N/A</v>
       </c>
       <c r="B26" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C26" s="1">
         <v>96.25</v>
@@ -5771,7 +5768,7 @@
         <v>#N/A</v>
       </c>
       <c r="B27" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C27" s="1">
         <v>96.25</v>
@@ -5808,7 +5805,7 @@
         <v>#N/A</v>
       </c>
       <c r="B28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C28" s="1">
         <v>96.25</v>
@@ -5845,7 +5842,7 @@
         <v xml:space="preserve"> Grootegeluk Coal</v>
       </c>
       <c r="B29" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C29" s="1">
         <v>96.25</v>
@@ -5882,7 +5879,7 @@
         <v>#N/A</v>
       </c>
       <c r="B30" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C30" s="1">
         <v>96.25</v>
@@ -5919,7 +5916,7 @@
         <v>#N/A</v>
       </c>
       <c r="B31" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C31" s="1">
         <v>96.25</v>
@@ -7071,8 +7068,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C1:AF480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369:G369"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="C355" sqref="C355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7089,55 +7086,55 @@
   <sheetData>
     <row r="1" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E2" t="s">
         <v>961</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>962</v>
-      </c>
-      <c r="F2" t="s">
-        <v>963</v>
       </c>
       <c r="G2" t="s">
         <v>58</v>
       </c>
       <c r="J2" t="s">
+        <v>934</v>
+      </c>
+      <c r="K2" t="s">
+        <v>963</v>
+      </c>
+      <c r="L2" t="s">
+        <v>957</v>
+      </c>
+      <c r="M2" t="s">
+        <v>964</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="P2" t="s">
         <v>935</v>
       </c>
-      <c r="K2" t="s">
-        <v>964</v>
-      </c>
-      <c r="L2" t="s">
-        <v>958</v>
-      </c>
-      <c r="M2" t="s">
-        <v>965</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>936</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>937</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="AC2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AD2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AE2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="3:32" x14ac:dyDescent="0.25">
@@ -7188,19 +7185,19 @@
         <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AC3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AD3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="AE3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AF3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="4" spans="3:32" x14ac:dyDescent="0.25">
@@ -7251,16 +7248,16 @@
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AC4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AE4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AF4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="5" spans="3:32" x14ac:dyDescent="0.25">
@@ -7311,19 +7308,19 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AC5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AD5" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AE5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AF5" t="s">
         <v>1138</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="6" spans="3:32" x14ac:dyDescent="0.25">
@@ -7374,19 +7371,19 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AC6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AD6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AF6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="3:32" x14ac:dyDescent="0.25">
@@ -7440,16 +7437,16 @@
         <v>54</v>
       </c>
       <c r="AA7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AC7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AF7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8" spans="3:32" x14ac:dyDescent="0.25">
@@ -7503,16 +7500,16 @@
         <v>31</v>
       </c>
       <c r="AA8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AF8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="9" spans="3:32" x14ac:dyDescent="0.25">
@@ -7566,16 +7563,16 @@
         <v>29</v>
       </c>
       <c r="AA9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AC9" t="s">
         <v>10</v>
       </c>
       <c r="AE9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AF9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="10" spans="3:32" x14ac:dyDescent="0.25">
@@ -7626,16 +7623,16 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AC10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AE10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AF10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.25">
@@ -7751,7 +7748,7 @@
         <v>CMOX</v>
       </c>
       <c r="AC12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.25">
@@ -7809,7 +7806,7 @@
         <v>CO2S</v>
       </c>
       <c r="AC13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.25">
@@ -7863,10 +7860,10 @@
         <v>24</v>
       </c>
       <c r="AA14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AC14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.25">
@@ -7982,10 +7979,10 @@
         <v>NMVS</v>
       </c>
       <c r="AC16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AD16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="17" spans="3:30" x14ac:dyDescent="0.25">
@@ -8043,10 +8040,10 @@
         <v>NOXS</v>
       </c>
       <c r="AC17" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AD17" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="18" spans="3:30" x14ac:dyDescent="0.25">
@@ -8100,13 +8097,13 @@
         <v>49</v>
       </c>
       <c r="AA18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AC18" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AD18" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="3:30" x14ac:dyDescent="0.25">
@@ -8160,10 +8157,10 @@
         <v>50</v>
       </c>
       <c r="AA19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AC19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="3:30" x14ac:dyDescent="0.25">
@@ -8217,10 +8214,10 @@
         <v>51</v>
       </c>
       <c r="AA20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AC20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="21" spans="3:30" x14ac:dyDescent="0.25">
@@ -8274,13 +8271,13 @@
         <v>52</v>
       </c>
       <c r="AA21" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AC21" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AD21" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="22" spans="3:30" x14ac:dyDescent="0.25">
@@ -8334,13 +8331,13 @@
         <v>53</v>
       </c>
       <c r="AA22" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AC22" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="23" spans="3:30" x14ac:dyDescent="0.25">
@@ -8398,7 +8395,7 @@
         <v>P10S</v>
       </c>
       <c r="AC23" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="3:30" x14ac:dyDescent="0.25">
@@ -8456,7 +8453,7 @@
         <v>SOXS</v>
       </c>
       <c r="AC24" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="25" spans="3:30" x14ac:dyDescent="0.25">
@@ -8510,13 +8507,13 @@
         <v>21</v>
       </c>
       <c r="AA25" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AC25" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AD25" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="26" spans="3:30" x14ac:dyDescent="0.25">
@@ -8570,10 +8567,10 @@
         <v>20</v>
       </c>
       <c r="AA26" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AC26" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="27" spans="3:30" x14ac:dyDescent="0.25">
@@ -8627,13 +8624,13 @@
         <v>19</v>
       </c>
       <c r="AA27" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AC27" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AD27" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="28" spans="3:30" x14ac:dyDescent="0.25">
@@ -8687,10 +8684,10 @@
         <v>18</v>
       </c>
       <c r="AA28" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AC28" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="29" spans="3:30" x14ac:dyDescent="0.25">
@@ -8744,10 +8741,10 @@
         <v>22</v>
       </c>
       <c r="AA29" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AC29" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="30" spans="3:30" x14ac:dyDescent="0.25">
@@ -8801,13 +8798,13 @@
         <v>23</v>
       </c>
       <c r="AA30" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AC30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AD30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="31" spans="3:30" x14ac:dyDescent="0.25">
@@ -8858,13 +8855,13 @@
         <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AC31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AD31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="32" spans="3:30" x14ac:dyDescent="0.25">
@@ -8915,10 +8912,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AC32" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="33" spans="3:30" x14ac:dyDescent="0.25">
@@ -8969,10 +8966,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AC33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34" spans="3:30" x14ac:dyDescent="0.25">
@@ -9026,7 +9023,7 @@
         <v>26</v>
       </c>
       <c r="AA34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="AC34" t="s">
         <v>11</v>
@@ -9083,13 +9080,13 @@
         <v>27</v>
       </c>
       <c r="AA35" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AC35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AD35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="36" spans="3:30" x14ac:dyDescent="0.25">
@@ -9140,10 +9137,10 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AC36" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="37" spans="3:30" x14ac:dyDescent="0.25">
@@ -9193,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AC37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="38" spans="3:30" x14ac:dyDescent="0.25">
@@ -9231,7 +9228,7 @@
         <v>117</v>
       </c>
       <c r="M38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
@@ -9246,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AC38" t="s">
         <v>15</v>
@@ -9284,7 +9281,7 @@
         <v>118</v>
       </c>
       <c r="M39" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N39">
         <f t="shared" si="4"/>
@@ -9302,7 +9299,7 @@
         <v>25</v>
       </c>
       <c r="AC39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="40" spans="3:30" x14ac:dyDescent="0.25">
@@ -9337,7 +9334,7 @@
         <v>112</v>
       </c>
       <c r="M40" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N40">
         <f t="shared" si="4"/>
@@ -9355,7 +9352,7 @@
         <v>28</v>
       </c>
       <c r="AC40" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="41" spans="3:30" x14ac:dyDescent="0.25">
@@ -9390,7 +9387,7 @@
         <v>121</v>
       </c>
       <c r="M41" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N41">
         <f t="shared" si="4"/>
@@ -9405,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="Z41" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AC41" t="s">
         <v>13</v>
@@ -9462,10 +9459,10 @@
         <v>37</v>
       </c>
       <c r="AA42" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC42" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="43" spans="3:30" x14ac:dyDescent="0.25">
@@ -9500,7 +9497,7 @@
         <v>123</v>
       </c>
       <c r="M43" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="N43">
         <f t="shared" si="4"/>
@@ -9518,13 +9515,13 @@
         <v>39</v>
       </c>
       <c r="AA43" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC43" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AD43" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="44" spans="3:30" x14ac:dyDescent="0.25">
@@ -9578,10 +9575,10 @@
         <v>38</v>
       </c>
       <c r="AA44" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC44" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="45" spans="3:30" x14ac:dyDescent="0.25">
@@ -9635,7 +9632,7 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC45" t="s">
         <v>16</v>
@@ -9692,10 +9689,10 @@
         <v>34</v>
       </c>
       <c r="AA46" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="47" spans="3:30" x14ac:dyDescent="0.25">
@@ -9749,10 +9746,10 @@
         <v>36</v>
       </c>
       <c r="AA47" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC47" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="48" spans="3:30" x14ac:dyDescent="0.25">
@@ -9806,10 +9803,10 @@
         <v>33</v>
       </c>
       <c r="AA48" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC48" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="49" spans="3:29" x14ac:dyDescent="0.25">
@@ -9863,10 +9860,10 @@
         <v>32</v>
       </c>
       <c r="AA49" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC49" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="50" spans="3:29" x14ac:dyDescent="0.25">
@@ -9920,7 +9917,7 @@
         <v>35</v>
       </c>
       <c r="AA50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="AC50" t="s">
         <v>12</v>
@@ -9977,10 +9974,10 @@
         <v>42</v>
       </c>
       <c r="AA51" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AC51" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="52" spans="3:29" x14ac:dyDescent="0.25">
@@ -10034,10 +10031,10 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AC52" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="53" spans="3:29" x14ac:dyDescent="0.25">
@@ -10091,10 +10088,10 @@
         <v>41</v>
       </c>
       <c r="AA53" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AC53" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="54" spans="3:29" x14ac:dyDescent="0.25">
@@ -10148,10 +10145,10 @@
         <v>45</v>
       </c>
       <c r="AA54" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AC54" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="55" spans="3:29" x14ac:dyDescent="0.25">
@@ -10205,7 +10202,7 @@
         <v>44</v>
       </c>
       <c r="AA55" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AC55" t="s">
         <v>56</v>
@@ -10262,7 +10259,7 @@
         <v>57</v>
       </c>
       <c r="AA56" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -10319,7 +10316,7 @@
         <v>46</v>
       </c>
       <c r="AA57" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="58" spans="3:29" x14ac:dyDescent="0.25">
@@ -10373,7 +10370,7 @@
         <v>47</v>
       </c>
       <c r="AA58" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="59" spans="3:29" x14ac:dyDescent="0.25">
@@ -10427,7 +10424,7 @@
         <v>48</v>
       </c>
       <c r="AA59" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="60" spans="3:29" x14ac:dyDescent="0.25">
@@ -10462,7 +10459,7 @@
         <v>156</v>
       </c>
       <c r="M60" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="4"/>
@@ -10477,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="Z60" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AA60" t="str">
         <f t="shared" ref="AA60:AA66" si="7">Z60</f>
@@ -10532,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="Z61" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AA61" t="str">
         <f t="shared" si="7"/>
@@ -10587,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="Z62" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AA62" t="str">
         <f t="shared" si="7"/>
@@ -10642,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="Z63" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="7"/>
@@ -10697,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="Z64" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AA64" t="str">
         <f t="shared" si="7"/>
@@ -10752,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="Z65" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AA65" t="str">
         <f t="shared" si="7"/>
@@ -10807,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="Z66" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AA66" t="str">
         <f t="shared" si="7"/>
@@ -10865,7 +10862,7 @@
         <v>55</v>
       </c>
       <c r="AA67" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="68" spans="3:27" x14ac:dyDescent="0.25">
@@ -10916,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="Z68" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AA68" t="str">
         <f>Z68</f>
@@ -11029,7 +11026,7 @@
         <v>388</v>
       </c>
       <c r="AA70" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="71" spans="3:27" x14ac:dyDescent="0.25">
@@ -11083,7 +11080,7 @@
         <v>391</v>
       </c>
       <c r="AA71" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="72" spans="3:27" x14ac:dyDescent="0.25">
@@ -11628,7 +11625,7 @@
         <v>185</v>
       </c>
       <c r="M82" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="N82">
         <f t="shared" si="12"/>
@@ -12047,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="Z90" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="91" spans="3:26" x14ac:dyDescent="0.25">
@@ -12098,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="Z91" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="92" spans="3:26" x14ac:dyDescent="0.25">
@@ -12149,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="Z92" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="93" spans="3:26" x14ac:dyDescent="0.25">
@@ -12200,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="Z93" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="94" spans="3:26" x14ac:dyDescent="0.25">
@@ -12251,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="Z94" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="95" spans="3:26" x14ac:dyDescent="0.25">
@@ -12302,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="Z95" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="96" spans="3:26" x14ac:dyDescent="0.25">
@@ -12353,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="Z96" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="97" spans="3:26" x14ac:dyDescent="0.25">
@@ -12404,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="Z97" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="98" spans="3:26" x14ac:dyDescent="0.25">
@@ -12455,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="Z98" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="99" spans="3:26" x14ac:dyDescent="0.25">
@@ -12506,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="Z99" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="100" spans="3:26" x14ac:dyDescent="0.25">
@@ -12557,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="Z100" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="101" spans="3:26" x14ac:dyDescent="0.25">
@@ -12608,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="Z101" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="102" spans="3:26" x14ac:dyDescent="0.25">
@@ -12659,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="Z102" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="103" spans="3:26" x14ac:dyDescent="0.25">
@@ -12710,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="Z103" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="104" spans="3:26" x14ac:dyDescent="0.25">
@@ -12761,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="Z104" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="105" spans="3:26" x14ac:dyDescent="0.25">
@@ -12812,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="Z105" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106" spans="3:26" x14ac:dyDescent="0.25">
@@ -12863,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="Z106" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="107" spans="3:26" x14ac:dyDescent="0.25">
@@ -12914,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="Z107" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="108" spans="3:26" x14ac:dyDescent="0.25">
@@ -12965,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="Z108" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="109" spans="3:26" x14ac:dyDescent="0.25">
@@ -13016,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="Z109" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="110" spans="3:26" x14ac:dyDescent="0.25">
@@ -13067,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="Z110" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="111" spans="3:26" x14ac:dyDescent="0.25">
@@ -13118,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="Z111" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="112" spans="3:26" x14ac:dyDescent="0.25">
@@ -13169,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="Z112" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="113" spans="3:26" x14ac:dyDescent="0.25">
@@ -13220,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="Z113" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="114" spans="3:26" x14ac:dyDescent="0.25">
@@ -13271,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="Z114" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="115" spans="3:26" x14ac:dyDescent="0.25">
@@ -13322,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="Z115" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="116" spans="3:26" x14ac:dyDescent="0.25">
@@ -13373,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="Z116" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="117" spans="3:26" x14ac:dyDescent="0.25">
@@ -13424,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="Z117" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="118" spans="3:26" x14ac:dyDescent="0.25">
@@ -13459,7 +13456,7 @@
         <v>246</v>
       </c>
       <c r="M118" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="N118" t="str">
         <f t="shared" si="12"/>
@@ -13474,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="Z118" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="119" spans="3:26" x14ac:dyDescent="0.25">
@@ -13525,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="Z119" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="120" spans="3:26" x14ac:dyDescent="0.25">
@@ -13576,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="Z120" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="121" spans="3:26" x14ac:dyDescent="0.25">
@@ -13627,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="Z121" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="122" spans="3:26" x14ac:dyDescent="0.25">
@@ -13678,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="Z122" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="123" spans="3:26" x14ac:dyDescent="0.25">
@@ -13729,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="Z123" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="124" spans="3:26" x14ac:dyDescent="0.25">
@@ -13780,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="Z124" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="125" spans="3:26" x14ac:dyDescent="0.25">
@@ -13831,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="Z125" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="126" spans="3:26" x14ac:dyDescent="0.25">
@@ -13882,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="Z126" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="127" spans="3:26" x14ac:dyDescent="0.25">
@@ -13933,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="Z127" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="128" spans="3:26" x14ac:dyDescent="0.25">
@@ -13984,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="Z128" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="129" spans="3:27" x14ac:dyDescent="0.25">
@@ -14035,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="Z129" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="130" spans="3:27" x14ac:dyDescent="0.25">
@@ -14086,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="Z130" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="131" spans="3:27" x14ac:dyDescent="0.25">
@@ -14137,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="Z131" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="132" spans="3:27" x14ac:dyDescent="0.25">
@@ -14188,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="Z132" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="133" spans="3:27" x14ac:dyDescent="0.25">
@@ -14239,12 +14236,12 @@
         <v>0</v>
       </c>
       <c r="Z133" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="134" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D134">
         <f>IF($P134&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J134,Factors!$B$5:$B$61,0)),0))</f>
@@ -14290,12 +14287,12 @@
         <v>0</v>
       </c>
       <c r="Z134" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="135" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D135">
         <f>IF($P135&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J135,Factors!$B$5:$B$61,0)),0))</f>
@@ -14341,7 +14338,7 @@
         <v>0</v>
       </c>
       <c r="Z135" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="136" spans="3:27" x14ac:dyDescent="0.25">
@@ -14392,7 +14389,7 @@
         <v>0</v>
       </c>
       <c r="Z136" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="137" spans="3:27" x14ac:dyDescent="0.25">
@@ -14443,7 +14440,7 @@
         <v>0</v>
       </c>
       <c r="Z137" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="138" spans="3:27" x14ac:dyDescent="0.25">
@@ -14494,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="Z138" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AA138" t="str">
         <f>Z138</f>
@@ -14549,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="Z139" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AA139" t="str">
         <f>Z139</f>
@@ -14604,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="Z140" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AA140" t="str">
         <f>Z140</f>
@@ -14659,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="Z141" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AA141" t="str">
         <f>Z141</f>
@@ -14714,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="Z142" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AA142" t="str">
         <f>Z142</f>
@@ -14769,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="Z143" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="144" spans="3:27" x14ac:dyDescent="0.25">
@@ -14820,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="Z144" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="145" spans="3:27" x14ac:dyDescent="0.25">
@@ -14871,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="Z145" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="146" spans="3:27" x14ac:dyDescent="0.25">
@@ -14922,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="Z146" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="147" spans="3:27" x14ac:dyDescent="0.25">
@@ -14973,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="Z147" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="148" spans="3:27" x14ac:dyDescent="0.25">
@@ -15024,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="Z148" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="149" spans="3:27" x14ac:dyDescent="0.25">
@@ -15075,10 +15072,10 @@
         <v>0</v>
       </c>
       <c r="Z149" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AA149" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="150" spans="3:27" x14ac:dyDescent="0.25">
@@ -15129,10 +15126,10 @@
         <v>0</v>
       </c>
       <c r="Z150" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AA150" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="151" spans="3:27" x14ac:dyDescent="0.25">
@@ -15183,10 +15180,10 @@
         <v>0</v>
       </c>
       <c r="Z151" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA151" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="152" spans="3:27" x14ac:dyDescent="0.25">
@@ -15237,10 +15234,10 @@
         <v>0</v>
       </c>
       <c r="Z152" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA152" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="153" spans="3:27" x14ac:dyDescent="0.25">
@@ -15291,10 +15288,10 @@
         <v>0</v>
       </c>
       <c r="Z153" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AA153" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="154" spans="3:27" x14ac:dyDescent="0.25">
@@ -15345,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="Z154" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AA154" t="str">
         <f>Z154</f>
@@ -15400,7 +15397,7 @@
         <v>0</v>
       </c>
       <c r="Z155" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA155" t="str">
         <f>Z155</f>
@@ -15455,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="Z156" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="157" spans="3:27" x14ac:dyDescent="0.25">
@@ -15506,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="Z157" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="158" spans="3:27" x14ac:dyDescent="0.25">
@@ -15557,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="Z158" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="159" spans="3:27" x14ac:dyDescent="0.25">
@@ -15608,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="Z159" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="160" spans="3:27" x14ac:dyDescent="0.25">
@@ -15659,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="Z160" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="161" spans="3:27" x14ac:dyDescent="0.25">
@@ -15710,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="Z161" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="162" spans="3:27" x14ac:dyDescent="0.25">
@@ -15761,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="Z162" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="163" spans="3:27" x14ac:dyDescent="0.25">
@@ -15812,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="Z163" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="164" spans="3:27" x14ac:dyDescent="0.25">
@@ -15863,7 +15860,7 @@
         <v>0</v>
       </c>
       <c r="Z164" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="165" spans="3:27" x14ac:dyDescent="0.25">
@@ -15914,10 +15911,10 @@
         <v>0</v>
       </c>
       <c r="Z165" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AA165" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="166" spans="3:27" x14ac:dyDescent="0.25">
@@ -15968,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="Z166" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="167" spans="3:27" x14ac:dyDescent="0.25">
@@ -16019,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="Z167" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="168" spans="3:27" x14ac:dyDescent="0.25">
@@ -16070,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="Z168" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="169" spans="3:27" x14ac:dyDescent="0.25">
@@ -16121,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="Z169" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="170" spans="3:27" x14ac:dyDescent="0.25">
@@ -16172,10 +16169,10 @@
         <v>0</v>
       </c>
       <c r="Z170" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AA170" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="171" spans="3:27" x14ac:dyDescent="0.25">
@@ -16226,10 +16223,10 @@
         <v>0</v>
       </c>
       <c r="Z171" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AA171" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="172" spans="3:27" x14ac:dyDescent="0.25">
@@ -16280,10 +16277,10 @@
         <v>0</v>
       </c>
       <c r="Z172" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AA172" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="173" spans="3:27" x14ac:dyDescent="0.25">
@@ -16334,10 +16331,10 @@
         <v>0</v>
       </c>
       <c r="Z173" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AA173" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="174" spans="3:27" x14ac:dyDescent="0.25">
@@ -16388,10 +16385,10 @@
         <v>1</v>
       </c>
       <c r="Z174" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AA174" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="175" spans="3:27" x14ac:dyDescent="0.25">
@@ -16442,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="Z175" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="176" spans="3:27" x14ac:dyDescent="0.25">
@@ -16493,10 +16490,10 @@
         <v>1</v>
       </c>
       <c r="Z176" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AA176" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="177" spans="3:27" x14ac:dyDescent="0.25">
@@ -16547,10 +16544,10 @@
         <v>1</v>
       </c>
       <c r="Z177" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AA177" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="178" spans="3:27" x14ac:dyDescent="0.25">
@@ -16601,10 +16598,10 @@
         <v>1</v>
       </c>
       <c r="Z178" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AA178" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="179" spans="3:27" x14ac:dyDescent="0.25">
@@ -16655,10 +16652,10 @@
         <v>1</v>
       </c>
       <c r="Z179" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="AA179" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="180" spans="3:27" x14ac:dyDescent="0.25">
@@ -16709,10 +16706,10 @@
         <v>1</v>
       </c>
       <c r="Z180" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AA180" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="181" spans="3:27" x14ac:dyDescent="0.25">
@@ -16763,10 +16760,10 @@
         <v>1</v>
       </c>
       <c r="Z181" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AA181" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="182" spans="3:27" x14ac:dyDescent="0.25">
@@ -16817,10 +16814,10 @@
         <v>1</v>
       </c>
       <c r="Z182" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AA182" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="183" spans="3:27" x14ac:dyDescent="0.25">
@@ -16871,10 +16868,10 @@
         <v>1</v>
       </c>
       <c r="Z183" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AA183" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="184" spans="3:27" x14ac:dyDescent="0.25">
@@ -16925,10 +16922,10 @@
         <v>1</v>
       </c>
       <c r="Z184" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AA184" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="185" spans="3:27" x14ac:dyDescent="0.25">
@@ -16979,10 +16976,10 @@
         <v>1</v>
       </c>
       <c r="Z185" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AA185" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="186" spans="3:27" x14ac:dyDescent="0.25">
@@ -17033,10 +17030,10 @@
         <v>1</v>
       </c>
       <c r="Z186" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AA186" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="187" spans="3:27" x14ac:dyDescent="0.25">
@@ -17087,10 +17084,10 @@
         <v>1</v>
       </c>
       <c r="Z187" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="AA187" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="188" spans="3:27" x14ac:dyDescent="0.25">
@@ -17141,10 +17138,10 @@
         <v>1</v>
       </c>
       <c r="Z188" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA188" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="189" spans="3:27" x14ac:dyDescent="0.25">
@@ -17195,10 +17192,10 @@
         <v>1</v>
       </c>
       <c r="Z189" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AA189" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="190" spans="3:27" x14ac:dyDescent="0.25">
@@ -17249,10 +17246,10 @@
         <v>1</v>
       </c>
       <c r="Z190" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AA190" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="191" spans="3:27" x14ac:dyDescent="0.25">
@@ -17303,10 +17300,10 @@
         <v>1</v>
       </c>
       <c r="Z191" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AA191" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="192" spans="3:27" x14ac:dyDescent="0.25">
@@ -17357,10 +17354,10 @@
         <v>0</v>
       </c>
       <c r="Z192" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AA192" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="193" spans="3:27" x14ac:dyDescent="0.25">
@@ -17411,10 +17408,10 @@
         <v>0</v>
       </c>
       <c r="Z193" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AA193" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="194" spans="3:27" x14ac:dyDescent="0.25">
@@ -17465,10 +17462,10 @@
         <v>0</v>
       </c>
       <c r="Z194" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AA194" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="195" spans="3:27" x14ac:dyDescent="0.25">
@@ -17519,10 +17516,10 @@
         <v>0</v>
       </c>
       <c r="Z195" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA195" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="196" spans="3:27" x14ac:dyDescent="0.25">
@@ -17572,10 +17569,10 @@
         <v>0</v>
       </c>
       <c r="Z196" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AA196" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="197" spans="3:27" x14ac:dyDescent="0.25">
@@ -17625,10 +17622,10 @@
         <v>0</v>
       </c>
       <c r="Z197" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AA197" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="198" spans="3:27" x14ac:dyDescent="0.25">
@@ -17678,10 +17675,10 @@
         <v>0</v>
       </c>
       <c r="Z198" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AA198" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="199" spans="3:27" x14ac:dyDescent="0.25">
@@ -17731,10 +17728,10 @@
         <v>0</v>
       </c>
       <c r="Z199" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AA199" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="200" spans="3:27" x14ac:dyDescent="0.25">
@@ -17784,10 +17781,10 @@
         <v>0</v>
       </c>
       <c r="Z200" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AA200" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="201" spans="3:27" x14ac:dyDescent="0.25">
@@ -17838,10 +17835,10 @@
         <v>0</v>
       </c>
       <c r="Z201" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AA201" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="202" spans="3:27" x14ac:dyDescent="0.25">
@@ -17892,10 +17889,10 @@
         <v>0</v>
       </c>
       <c r="Z202" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AA202" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="203" spans="3:27" x14ac:dyDescent="0.25">
@@ -17946,10 +17943,10 @@
         <v>0</v>
       </c>
       <c r="Z203" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AA203" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="204" spans="3:27" x14ac:dyDescent="0.25">
@@ -18000,10 +17997,10 @@
         <v>0</v>
       </c>
       <c r="Z204" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AA204" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="205" spans="3:27" x14ac:dyDescent="0.25">
@@ -18054,10 +18051,10 @@
         <v>0</v>
       </c>
       <c r="Z205" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AA205" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="206" spans="3:27" x14ac:dyDescent="0.25">
@@ -18108,10 +18105,10 @@
         <v>0</v>
       </c>
       <c r="Z206" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AA206" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="207" spans="3:27" x14ac:dyDescent="0.25">
@@ -18162,10 +18159,10 @@
         <v>0</v>
       </c>
       <c r="Z207" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AA207" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="208" spans="3:27" x14ac:dyDescent="0.25">
@@ -18216,10 +18213,10 @@
         <v>0</v>
       </c>
       <c r="Z208" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AA208" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="209" spans="3:27" x14ac:dyDescent="0.25">
@@ -18270,10 +18267,10 @@
         <v>0</v>
       </c>
       <c r="Z209" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AA209" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="210" spans="3:27" x14ac:dyDescent="0.25">
@@ -18324,10 +18321,10 @@
         <v>0</v>
       </c>
       <c r="Z210" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AA210" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="211" spans="3:27" x14ac:dyDescent="0.25">
@@ -18378,10 +18375,10 @@
         <v>0</v>
       </c>
       <c r="Z211" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AA211" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="212" spans="3:27" x14ac:dyDescent="0.25">
@@ -18432,10 +18429,10 @@
         <v>0</v>
       </c>
       <c r="Z212" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AA212" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="213" spans="3:27" x14ac:dyDescent="0.25">
@@ -18486,10 +18483,10 @@
         <v>0</v>
       </c>
       <c r="Z213" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AA213" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="214" spans="3:27" x14ac:dyDescent="0.25">
@@ -18540,10 +18537,10 @@
         <v>0</v>
       </c>
       <c r="Z214" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AA214" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="215" spans="3:27" x14ac:dyDescent="0.25">
@@ -18594,10 +18591,10 @@
         <v>0</v>
       </c>
       <c r="Z215" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AA215" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="216" spans="3:27" x14ac:dyDescent="0.25">
@@ -18648,10 +18645,10 @@
         <v>0</v>
       </c>
       <c r="Z216" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AA216" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="217" spans="3:27" x14ac:dyDescent="0.25">
@@ -18702,10 +18699,10 @@
         <v>0</v>
       </c>
       <c r="Z217" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AA217" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="218" spans="3:27" x14ac:dyDescent="0.25">
@@ -18756,10 +18753,10 @@
         <v>0</v>
       </c>
       <c r="Z218" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AA218" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="219" spans="3:27" x14ac:dyDescent="0.25">
@@ -18810,10 +18807,10 @@
         <v>0</v>
       </c>
       <c r="Z219" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AA219" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="220" spans="3:27" x14ac:dyDescent="0.25">
@@ -18864,10 +18861,10 @@
         <v>0</v>
       </c>
       <c r="Z220" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AA220" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="221" spans="3:27" x14ac:dyDescent="0.25">
@@ -18918,10 +18915,10 @@
         <v>0</v>
       </c>
       <c r="Z221" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AA221" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="222" spans="3:27" x14ac:dyDescent="0.25">
@@ -18972,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="Z222" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="223" spans="3:27" x14ac:dyDescent="0.25">
@@ -19023,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="Z223" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="224" spans="3:27" x14ac:dyDescent="0.25">
@@ -19074,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="Z224" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="225" spans="3:26" x14ac:dyDescent="0.25">
@@ -19125,7 +19122,7 @@
         <v>0</v>
       </c>
       <c r="Z225" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="226" spans="3:26" x14ac:dyDescent="0.25">
@@ -19176,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="Z226" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="227" spans="3:26" x14ac:dyDescent="0.25">
@@ -25324,8 +25321,8 @@
       </c>
     </row>
     <row r="355" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C355" t="s">
-        <v>700</v>
+      <c r="C355" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="D355">
         <f>IF($P355&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J355,Factors!$B$5:$B$61,0)),0))</f>
@@ -25352,7 +25349,7 @@
         <v>GAS</v>
       </c>
       <c r="L355" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M355" t="str">
         <f t="shared" si="46"/>
@@ -25373,7 +25370,7 @@
     </row>
     <row r="356" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C356" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D356">
         <f>IF($P356&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J356,Factors!$B$5:$B$61,0)),0))</f>
@@ -25400,7 +25397,7 @@
         <v>ELC</v>
       </c>
       <c r="L356" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M356" t="str">
         <f t="shared" si="46"/>
@@ -25421,7 +25418,7 @@
     </row>
     <row r="357" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C357" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D357">
         <f>IF($P357&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J357,Factors!$B$5:$B$61,0)),0))</f>
@@ -25448,7 +25445,7 @@
         <v>GAS</v>
       </c>
       <c r="L357" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M357" t="str">
         <f t="shared" si="46"/>
@@ -25469,7 +25466,7 @@
     </row>
     <row r="358" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C358" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D358">
         <f>IF($P358&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J358,Factors!$B$5:$B$61,0)),0))</f>
@@ -25496,7 +25493,7 @@
         <v>ELC</v>
       </c>
       <c r="L358" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M358" t="str">
         <f t="shared" si="46"/>
@@ -25517,7 +25514,7 @@
     </row>
     <row r="359" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C359" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D359">
         <f>IF($P359&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J359,Factors!$B$5:$B$61,0)),0))</f>
@@ -25544,7 +25541,7 @@
         <v>GAS</v>
       </c>
       <c r="L359" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M359" t="str">
         <f t="shared" si="46"/>
@@ -25565,7 +25562,7 @@
     </row>
     <row r="360" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C360" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D360">
         <f>IF($P360&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J360,Factors!$B$5:$B$61,0)),0))</f>
@@ -25592,7 +25589,7 @@
         <v>BIO</v>
       </c>
       <c r="L360" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M360" t="str">
         <f t="shared" si="46"/>
@@ -25613,7 +25610,7 @@
     </row>
     <row r="361" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C361" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D361" s="8">
         <v>0</v>
@@ -25636,7 +25633,7 @@
         <v>CKC</v>
       </c>
       <c r="L361" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M361" t="str">
         <f t="shared" si="46"/>
@@ -25657,7 +25654,7 @@
     </row>
     <row r="362" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C362" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D362">
         <f>IF($P362&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J362,Factors!$B$5:$B$61,0)),0))</f>
@@ -25684,7 +25681,7 @@
         <v>CKE</v>
       </c>
       <c r="L362" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M362" t="str">
         <f t="shared" si="46"/>
@@ -25705,7 +25702,7 @@
     </row>
     <row r="363" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C363" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D363">
         <f>IF($P363&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J363,Factors!$B$5:$B$61,0)),0))</f>
@@ -25732,7 +25729,7 @@
         <v>CO2</v>
       </c>
       <c r="L363" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M363" t="str">
         <f t="shared" si="46"/>
@@ -25753,7 +25750,7 @@
     </row>
     <row r="364" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C364" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D364" s="8">
         <v>0</v>
@@ -25776,7 +25773,7 @@
         <v>COA</v>
       </c>
       <c r="L364" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M364" t="str">
         <f t="shared" si="46"/>
@@ -25797,7 +25794,7 @@
     </row>
     <row r="365" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C365" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D365">
         <f>IF($P365&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J365,Factors!$B$5:$B$61,0)),0))</f>
@@ -25824,7 +25821,7 @@
         <v>COG</v>
       </c>
       <c r="L365" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M365" t="str">
         <f t="shared" si="46"/>
@@ -25845,7 +25842,7 @@
     </row>
     <row r="366" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C366" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D366">
         <f>IF($P366&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J366,Factors!$B$5:$B$61,0)),0))</f>
@@ -25872,7 +25869,7 @@
         <v>ELC</v>
       </c>
       <c r="L366" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M366" t="str">
         <f t="shared" si="46"/>
@@ -25893,7 +25890,7 @@
     </row>
     <row r="367" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C367" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D367" s="8">
         <v>0</v>
@@ -25916,7 +25913,7 @@
         <v>GAS</v>
       </c>
       <c r="L367" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M367" t="str">
         <f t="shared" si="46"/>
@@ -25937,7 +25934,7 @@
     </row>
     <row r="368" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C368" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D368">
         <f>IF($P368&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J368,Factors!$B$5:$B$61,0)),0))</f>
@@ -25964,7 +25961,7 @@
         <v>OIL</v>
       </c>
       <c r="L368" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M368" t="str">
         <f t="shared" si="46"/>
@@ -25985,7 +25982,7 @@
     </row>
     <row r="369" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C369" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D369" s="8">
         <v>0</v>
@@ -26008,7 +26005,7 @@
         <v>OLP</v>
       </c>
       <c r="L369" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M369" t="str">
         <f t="shared" si="46"/>
@@ -26029,7 +26026,7 @@
     </row>
     <row r="370" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C370" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D370">
         <f>IF($P370&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J370,Factors!$B$5:$B$61,0)),0))</f>
@@ -26056,7 +26053,7 @@
         <v>SSC</v>
       </c>
       <c r="L370" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M370" t="str">
         <f t="shared" si="46"/>
@@ -26077,7 +26074,7 @@
     </row>
     <row r="371" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C371" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D371">
         <f>IF($P371&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J371,Factors!$B$5:$B$61,0)),0))</f>
@@ -26104,7 +26101,7 @@
         <v>WAS</v>
       </c>
       <c r="L371" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M371" t="str">
         <f t="shared" si="46"/>
@@ -26125,7 +26122,7 @@
     </row>
     <row r="372" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C372" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D372">
         <f>IF($P372&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J372,Factors!$B$5:$B$61,0)),0))</f>
@@ -26152,7 +26149,7 @@
         <v>ELC</v>
       </c>
       <c r="L372" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M372" t="str">
         <f t="shared" si="46"/>
@@ -26173,7 +26170,7 @@
     </row>
     <row r="373" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C373" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D373">
         <f>IF($P373&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J373,Factors!$B$5:$B$61,0)),0))</f>
@@ -26200,7 +26197,7 @@
         <v>GAS</v>
       </c>
       <c r="L373" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M373" t="str">
         <f t="shared" si="46"/>
@@ -26221,7 +26218,7 @@
     </row>
     <row r="374" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C374" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D374">
         <f>IF($P374&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J374,Factors!$B$5:$B$61,0)),0))</f>
@@ -26248,7 +26245,7 @@
         <v>CH4</v>
       </c>
       <c r="L374" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M374" t="str">
         <f t="shared" si="46"/>
@@ -26269,7 +26266,7 @@
     </row>
     <row r="375" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C375" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D375">
         <f>IF($P375&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J375,Factors!$B$5:$B$61,0)),0))</f>
@@ -26317,7 +26314,7 @@
     </row>
     <row r="376" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C376" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D376">
         <f>IF($P376&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J376,Factors!$B$5:$B$61,0)),0))</f>
@@ -26344,7 +26341,7 @@
         <v>CO2</v>
       </c>
       <c r="L376" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M376" t="str">
         <f t="shared" si="46"/>
@@ -26365,7 +26362,7 @@
     </row>
     <row r="377" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C377" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D377">
         <f>IF($P377&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J377,Factors!$B$5:$B$61,0)),0))</f>
@@ -26392,7 +26389,7 @@
         <v>N2O</v>
       </c>
       <c r="L377" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M377" t="str">
         <f t="shared" si="46"/>
@@ -26413,7 +26410,7 @@
     </row>
     <row r="378" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C378" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D378">
         <f>IF($P378&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J378,Factors!$B$5:$B$61,0)),0))</f>
@@ -26440,7 +26437,7 @@
         <v>NMV</v>
       </c>
       <c r="L378" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M378" t="str">
         <f t="shared" si="46"/>
@@ -26461,7 +26458,7 @@
     </row>
     <row r="379" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C379" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D379">
         <f>IF($P379&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J379,Factors!$B$5:$B$61,0)),0))</f>
@@ -26488,7 +26485,7 @@
         <v>NOX</v>
       </c>
       <c r="L379" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M379" t="str">
         <f t="shared" si="46"/>
@@ -26509,7 +26506,7 @@
     </row>
     <row r="380" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C380" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D380">
         <f>IF($P380&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J380,Factors!$B$5:$B$61,0)),0))</f>
@@ -26536,7 +26533,7 @@
         <v>PM10</v>
       </c>
       <c r="L380" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M380" t="str">
         <f t="shared" si="46"/>
@@ -26557,7 +26554,7 @@
     </row>
     <row r="381" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C381" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D381">
         <f>IF($P381&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J381,Factors!$B$5:$B$61,0)),0))</f>
@@ -26584,7 +26581,7 @@
         <v>SOX</v>
       </c>
       <c r="L381" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M381" t="str">
         <f t="shared" si="46"/>
@@ -26605,7 +26602,7 @@
     </row>
     <row r="382" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C382" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D382">
         <f>IF($P382&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J382,Factors!$B$5:$B$61,0)),0))</f>
@@ -26632,7 +26629,7 @@
         <v>ELC</v>
       </c>
       <c r="L382" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M382" t="str">
         <f t="shared" si="46"/>
@@ -26653,7 +26650,7 @@
     </row>
     <row r="383" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C383" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D383">
         <f>IF($P383&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J383,Factors!$B$5:$B$61,0)),0))</f>
@@ -26680,7 +26677,7 @@
         <v>GAS</v>
       </c>
       <c r="L383" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M383" t="str">
         <f t="shared" si="46"/>
@@ -26701,7 +26698,7 @@
     </row>
     <row r="384" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C384" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D384">
         <f>IF($P384&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J384,Factors!$B$5:$B$61,0)),0))</f>
@@ -26728,7 +26725,7 @@
         <v>BIO</v>
       </c>
       <c r="L384" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M384" t="str">
         <f t="shared" si="46"/>
@@ -26749,7 +26746,7 @@
     </row>
     <row r="385" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C385" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D385">
         <f>IF($P385&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J385,Factors!$B$5:$B$61,0)),0))</f>
@@ -26776,7 +26773,7 @@
         <v>BRITHF</v>
       </c>
       <c r="L385" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M385">
         <f t="shared" si="46"/>
@@ -26797,7 +26794,7 @@
     </row>
     <row r="386" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C386" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D386">
         <f>IF($P386&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J386,Factors!$B$5:$B$61,0)),0))</f>
@@ -26824,7 +26821,7 @@
         <v>CEMTHF</v>
       </c>
       <c r="L386" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M386">
         <f t="shared" si="46"/>
@@ -26845,7 +26842,7 @@
     </row>
     <row r="387" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C387" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D387">
         <f>IF($P387&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J387,Factors!$B$5:$B$61,0)),0))</f>
@@ -26872,7 +26869,7 @@
         <v>CLI</v>
       </c>
       <c r="L387" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M387">
         <f t="shared" si="46"/>
@@ -26893,7 +26890,7 @@
     </row>
     <row r="388" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C388" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D388">
         <f>IF($P388&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J388,Factors!$B$5:$B$61,0)),0))</f>
@@ -26920,7 +26917,7 @@
         <v>COA</v>
       </c>
       <c r="L388" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M388" t="str">
         <f t="shared" si="46"/>
@@ -26941,7 +26938,7 @@
     </row>
     <row r="389" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C389" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D389">
         <f>IF($P389&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J389,Factors!$B$5:$B$61,0)),0))</f>
@@ -26968,7 +26965,7 @@
         <v>ELC</v>
       </c>
       <c r="L389" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M389" t="str">
         <f t="shared" si="46"/>
@@ -26989,7 +26986,7 @@
     </row>
     <row r="390" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C390" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D390">
         <f>IF($P390&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J390,Factors!$B$5:$B$61,0)),0))</f>
@@ -27016,7 +27013,7 @@
         <v>GAS</v>
       </c>
       <c r="L390" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M390" t="str">
         <f t="shared" si="46"/>
@@ -27037,7 +27034,7 @@
     </row>
     <row r="391" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C391" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D391">
         <f>IF($P391&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J391,Factors!$B$5:$B$61,0)),0))</f>
@@ -27064,7 +27061,7 @@
         <v>GLATHF</v>
       </c>
       <c r="L391" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M391">
         <f t="shared" si="46"/>
@@ -27085,7 +27082,7 @@
     </row>
     <row r="392" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C392" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D392">
         <f>IF($P392&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J392,Factors!$B$5:$B$61,0)),0))</f>
@@ -27112,7 +27109,7 @@
         <v>LIMTHF</v>
       </c>
       <c r="L392" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M392">
         <f t="shared" si="46"/>
@@ -27133,7 +27130,7 @@
     </row>
     <row r="393" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C393" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D393">
         <f>IF($P393&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J393,Factors!$B$5:$B$61,0)),0))</f>
@@ -27160,7 +27157,7 @@
         <v>OIL</v>
       </c>
       <c r="L393" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M393" t="str">
         <f t="shared" ref="M393:M415" si="52">INDEX($AA$3:$AA$226,MATCH(K393,$Z$3:$Z$226,0))</f>
@@ -27181,7 +27178,7 @@
     </row>
     <row r="394" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C394" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D394">
         <f>IF($P394&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J394,Factors!$B$5:$B$61,0)),0))</f>
@@ -27208,7 +27205,7 @@
         <v>RWM</v>
       </c>
       <c r="L394" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M394">
         <f t="shared" si="52"/>
@@ -27229,7 +27226,7 @@
     </row>
     <row r="395" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C395" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D395">
         <f>IF($P395&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J395,Factors!$B$5:$B$61,0)),0))</f>
@@ -27256,7 +27253,7 @@
         <v>ELC</v>
       </c>
       <c r="L395" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M395" t="str">
         <f t="shared" si="52"/>
@@ -27277,7 +27274,7 @@
     </row>
     <row r="396" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C396" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D396">
         <f>IF($P396&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J396,Factors!$B$5:$B$61,0)),0))</f>
@@ -27304,7 +27301,7 @@
         <v>GAS</v>
       </c>
       <c r="L396" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M396" t="str">
         <f t="shared" si="52"/>
@@ -27325,7 +27322,7 @@
     </row>
     <row r="397" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C397" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D397">
         <f>IF($P397&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J397,Factors!$B$5:$B$61,0)),0))</f>
@@ -27352,7 +27349,7 @@
         <v>BIO</v>
       </c>
       <c r="L397" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M397" t="str">
         <f t="shared" si="52"/>
@@ -27373,7 +27370,7 @@
     </row>
     <row r="398" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C398" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D398">
         <f>IF($P398&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J398,Factors!$B$5:$B$61,0)),0))</f>
@@ -27400,7 +27397,7 @@
         <v>BLQ</v>
       </c>
       <c r="L398" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M398">
         <f t="shared" si="52"/>
@@ -27421,7 +27418,7 @@
     </row>
     <row r="399" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C399" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D399">
         <f>IF($P399&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J399,Factors!$B$5:$B$61,0)),0))</f>
@@ -27448,7 +27445,7 @@
         <v>COA</v>
       </c>
       <c r="L399" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M399" t="str">
         <f t="shared" si="52"/>
@@ -27469,7 +27466,7 @@
     </row>
     <row r="400" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C400" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D400">
         <f>IF($P400&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J400,Factors!$B$5:$B$61,0)),0))</f>
@@ -27496,7 +27493,7 @@
         <v>ELC</v>
       </c>
       <c r="L400" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M400" t="str">
         <f t="shared" si="52"/>
@@ -27517,7 +27514,7 @@
     </row>
     <row r="401" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C401" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D401">
         <f>IF($P401&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J401,Factors!$B$5:$B$61,0)),0))</f>
@@ -27544,7 +27541,7 @@
         <v>GAS</v>
       </c>
       <c r="L401" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M401" t="str">
         <f t="shared" si="52"/>
@@ -27565,7 +27562,7 @@
     </row>
     <row r="402" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C402" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D402">
         <f>IF($P402&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J402,Factors!$B$5:$B$61,0)),0))</f>
@@ -27592,7 +27589,7 @@
         <v>ODS</v>
       </c>
       <c r="L402" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M402" t="str">
         <f t="shared" si="52"/>
@@ -27613,7 +27610,7 @@
     </row>
     <row r="403" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C403" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D403">
         <f>IF($P403&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J403,Factors!$B$5:$B$61,0)),0))</f>
@@ -27640,7 +27637,7 @@
         <v>OGS</v>
       </c>
       <c r="L403" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M403" t="str">
         <f t="shared" si="52"/>
@@ -27661,7 +27658,7 @@
     </row>
     <row r="404" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C404" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D404">
         <f>IF($P404&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J404,Factors!$B$5:$B$61,0)),0))</f>
@@ -27688,7 +27685,7 @@
         <v>OHF</v>
       </c>
       <c r="L404" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M404" t="str">
         <f t="shared" si="52"/>
@@ -27709,7 +27706,7 @@
     </row>
     <row r="405" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C405" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D405">
         <f>IF($P405&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J405,Factors!$B$5:$B$61,0)),0))</f>
@@ -27736,7 +27733,7 @@
         <v>OLP</v>
       </c>
       <c r="L405" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M405" t="str">
         <f t="shared" si="52"/>
@@ -27757,7 +27754,7 @@
     </row>
     <row r="406" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C406" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D406">
         <f>IF($P406&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J406,Factors!$B$5:$B$61,0)),0))</f>
@@ -27784,7 +27781,7 @@
         <v>PULP</v>
       </c>
       <c r="L406" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M406">
         <f t="shared" si="52"/>
@@ -27805,7 +27802,7 @@
     </row>
     <row r="407" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C407" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D407">
         <f>IF($P407&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J407,Factors!$B$5:$B$61,0)),0))</f>
@@ -27832,7 +27829,7 @@
         <v>REC</v>
       </c>
       <c r="L407" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M407">
         <f t="shared" si="52"/>
@@ -27853,7 +27850,7 @@
     </row>
     <row r="408" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C408" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D408">
         <f>IF($P408&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J408,Factors!$B$5:$B$61,0)),0))</f>
@@ -27880,7 +27877,7 @@
         <v>STM</v>
       </c>
       <c r="L408" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M408" t="str">
         <f t="shared" si="52"/>
@@ -27901,7 +27898,7 @@
     </row>
     <row r="409" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C409" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D409">
         <f>IF($P409&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J409,Factors!$B$5:$B$61,0)),0))</f>
@@ -27928,7 +27925,7 @@
         <v>THF</v>
       </c>
       <c r="L409" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M409">
         <f t="shared" si="52"/>
@@ -27949,7 +27946,7 @@
     </row>
     <row r="410" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C410" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D410">
         <f>IF($P410&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J410,Factors!$B$5:$B$61,0)),0))</f>
@@ -27976,7 +27973,7 @@
         <v>CLE</v>
       </c>
       <c r="L410" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M410" t="str">
         <f t="shared" si="52"/>
@@ -27997,7 +27994,7 @@
     </row>
     <row r="411" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C411" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D411">
         <f>IF($P411&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J411,Factors!$B$5:$B$61,0)),0))</f>
@@ -28024,7 +28021,7 @@
         <v>ENV</v>
       </c>
       <c r="L411" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M411">
         <f t="shared" si="52"/>
@@ -28045,7 +28042,7 @@
     </row>
     <row r="412" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C412" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D412">
         <f>IF($P412&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J412,Factors!$B$5:$B$61,0)),0))</f>
@@ -28072,7 +28069,7 @@
         <v>EPE</v>
       </c>
       <c r="L412" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M412">
         <f t="shared" si="52"/>
@@ -28093,7 +28090,7 @@
     </row>
     <row r="413" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C413" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D413">
         <f>IF($P413&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J413,Factors!$B$5:$B$61,0)),0))</f>
@@ -28120,7 +28117,7 @@
         <v>EPN</v>
       </c>
       <c r="L413" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M413">
         <f t="shared" si="52"/>
@@ -28141,7 +28138,7 @@
     </row>
     <row r="414" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C414" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D414">
         <f>IF($P414&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J414,Factors!$B$5:$B$61,0)),0))</f>
@@ -28168,7 +28165,7 @@
         <v>CLE-A</v>
       </c>
       <c r="L414" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M414" t="str">
         <f t="shared" si="52"/>
@@ -28189,7 +28186,7 @@
     </row>
     <row r="415" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C415" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D415">
         <f>IF($P415&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J415,Factors!$B$5:$B$61,0)),0))</f>
@@ -28216,7 +28213,7 @@
         <v>-A</v>
       </c>
       <c r="L415" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M415" t="str">
         <f t="shared" si="52"/>
@@ -28237,7 +28234,7 @@
     </row>
     <row r="416" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C416" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D416">
         <f>IF($P416&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J416,Factors!$B$5:$B$61,0)),0))</f>
@@ -28264,10 +28261,10 @@
         <v>C</v>
       </c>
       <c r="L416" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M416" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="N416" t="str">
         <f t="shared" si="50"/>
@@ -28284,7 +28281,7 @@
     </row>
     <row r="417" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C417" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D417">
         <f>IF($P417&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J417,Factors!$B$5:$B$61,0)),0))</f>
@@ -28311,7 +28308,7 @@
         <v>C-A</v>
       </c>
       <c r="L417" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M417" t="str">
         <f>INDEX($AA$3:$AA$226,MATCH(K417,$Z$3:$Z$226,0))</f>
@@ -28332,7 +28329,7 @@
     </row>
     <row r="418" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C418" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D418">
         <f>IF($P418&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J418,Factors!$B$5:$B$61,0)),0))</f>
@@ -28359,7 +28356,7 @@
         <v>CLS</v>
       </c>
       <c r="L418" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M418" t="str">
         <f>INDEX($AA$3:$AA$226,MATCH(K418,$Z$3:$Z$226,0))</f>
@@ -28380,7 +28377,7 @@
     </row>
     <row r="419" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C419" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D419">
         <f>IF($P419&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J419,Factors!$B$5:$B$61,0)),0))</f>
@@ -28407,7 +28404,7 @@
         <v>-A</v>
       </c>
       <c r="L419" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M419" t="str">
         <f>INDEX($AA$3:$AA$226,MATCH(K419,$Z$3:$Z$226,0))</f>
@@ -28428,7 +28425,7 @@
     </row>
     <row r="420" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C420" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D420">
         <f>IF($P420&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J420,Factors!$B$5:$B$61,0)),0))</f>
@@ -28455,7 +28452,7 @@
         <v>CME</v>
       </c>
       <c r="L420" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M420" t="str">
         <f>INDEX($AA$3:$AA$226,MATCH(K420,$Z$3:$Z$226,0))</f>
@@ -28476,7 +28473,7 @@
     </row>
     <row r="421" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C421" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D421">
         <f>IF($P421&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J421,Factors!$B$5:$B$61,0)),0))</f>
@@ -28503,10 +28500,10 @@
         <v>-R</v>
       </c>
       <c r="L421" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M421" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="N421" t="str">
         <f t="shared" si="50"/>
@@ -28523,7 +28520,7 @@
     </row>
     <row r="422" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C422" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D422">
         <f>IF($P422&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J422,Factors!$B$5:$B$61,0)),0))</f>
@@ -28550,7 +28547,7 @@
         <v>CLE-A</v>
       </c>
       <c r="L422" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M422" t="str">
         <f>INDEX($AA$3:$AA$226,MATCH(K422,$Z$3:$Z$226,0))</f>
@@ -28571,7 +28568,7 @@
     </row>
     <row r="423" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C423" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D423">
         <f>IF($P423&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J423,Factors!$B$5:$B$61,0)),0))</f>
@@ -28598,10 +28595,10 @@
         <v>E</v>
       </c>
       <c r="L423" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M423" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N423" t="str">
         <f t="shared" si="50"/>
@@ -28618,7 +28615,7 @@
     </row>
     <row r="424" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C424" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D424">
         <f>IF($P424&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J424,Factors!$B$5:$B$61,0)),0))</f>
@@ -28645,7 +28642,7 @@
         <v>NWV</v>
       </c>
       <c r="L424" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M424" t="str">
         <f t="shared" ref="M424:M455" si="53">INDEX($AA$3:$AA$226,MATCH(K424,$Z$3:$Z$226,0))</f>
@@ -28666,7 +28663,7 @@
     </row>
     <row r="425" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C425" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D425">
         <f>IF($P425&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J425,Factors!$B$5:$B$61,0)),0))</f>
@@ -28693,7 +28690,7 @@
         <v>GTK</v>
       </c>
       <c r="L425" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M425" t="str">
         <f t="shared" si="53"/>
@@ -28714,7 +28711,7 @@
     </row>
     <row r="426" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C426" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D426">
         <f>IF($P426&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J426,Factors!$B$5:$B$61,0)),0))</f>
@@ -28741,7 +28738,7 @@
         <v>KHU</v>
       </c>
       <c r="L426" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M426" t="str">
         <f t="shared" si="53"/>
@@ -28762,7 +28759,7 @@
     </row>
     <row r="427" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C427" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D427">
         <f>IF($P427&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J427,Factors!$B$5:$B$61,0)),0))</f>
@@ -28789,7 +28786,7 @@
         <v>KIP</v>
       </c>
       <c r="L427" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M427" t="str">
         <f t="shared" si="53"/>
@@ -28810,7 +28807,7 @@
     </row>
     <row r="428" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D428">
         <f>IF($P428&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J428,Factors!$B$5:$B$61,0)),0))</f>
@@ -28837,7 +28834,7 @@
         <v>MAT</v>
       </c>
       <c r="L428" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="M428" t="str">
         <f t="shared" si="53"/>
@@ -28858,7 +28855,7 @@
     </row>
     <row r="429" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C429" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D429">
         <f>IF($P429&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J429,Factors!$B$5:$B$61,0)),0))</f>
@@ -28885,7 +28882,7 @@
         <v>MMS</v>
       </c>
       <c r="L429" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M429" t="str">
         <f t="shared" si="53"/>
@@ -28906,7 +28903,7 @@
     </row>
     <row r="430" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C430" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D430">
         <f>IF($P430&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J430,Factors!$B$5:$B$61,0)),0))</f>
@@ -28933,7 +28930,7 @@
         <v>KRI</v>
       </c>
       <c r="L430" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M430" t="str">
         <f t="shared" si="53"/>
@@ -28954,7 +28951,7 @@
     </row>
     <row r="431" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C431" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D431">
         <f>IF($P431&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J431,Factors!$B$5:$B$61,0)),0))</f>
@@ -28981,7 +28978,7 @@
         <v>OPT</v>
       </c>
       <c r="L431" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M431" t="str">
         <f t="shared" si="53"/>
@@ -29002,7 +28999,7 @@
     </row>
     <row r="432" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C432" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D432">
         <f>IF($P432&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J432,Factors!$B$5:$B$61,0)),0))</f>
@@ -29029,7 +29026,7 @@
         <v>NWD</v>
       </c>
       <c r="L432" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M432" t="str">
         <f t="shared" si="53"/>
@@ -29050,7 +29047,7 @@
     </row>
     <row r="433" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C433" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D433">
         <f>IF($P433&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J433,Factors!$B$5:$B$61,0)),0))</f>
@@ -29077,7 +29074,7 @@
         <v>ARN</v>
       </c>
       <c r="L433" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M433" t="str">
         <f t="shared" si="53"/>
@@ -29098,7 +29095,7 @@
     </row>
     <row r="434" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C434" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D434">
         <f>IF($P434&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J434,Factors!$B$5:$B$61,0)),0))</f>
@@ -29125,7 +29122,7 @@
         <v>GDV</v>
       </c>
       <c r="L434" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M434" t="str">
         <f t="shared" si="53"/>
@@ -29146,7 +29143,7 @@
     </row>
     <row r="435" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C435" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D435">
         <f>IF($P435&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J435,Factors!$B$5:$B$61,0)),0))</f>
@@ -29173,7 +29170,7 @@
         <v>MAF</v>
       </c>
       <c r="L435" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M435" t="str">
         <f t="shared" si="53"/>
@@ -29194,7 +29191,7 @@
     </row>
     <row r="436" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C436" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D436">
         <f>IF($P436&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J436,Factors!$B$5:$B$61,0)),0))</f>
@@ -29221,7 +29218,7 @@
         <v>MID</v>
       </c>
       <c r="L436" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M436" t="str">
         <f t="shared" si="53"/>
@@ -29242,7 +29239,7 @@
     </row>
     <row r="437" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C437" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D437">
         <f>IF($P437&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J437,Factors!$B$5:$B$61,0)),0))</f>
@@ -29269,7 +29266,7 @@
         <v>NBC</v>
       </c>
       <c r="L437" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M437" t="str">
         <f t="shared" si="53"/>
@@ -29290,7 +29287,7 @@
     </row>
     <row r="438" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C438" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D438">
         <f>IF($P438&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J438,Factors!$B$5:$B$61,0)),0))</f>
@@ -29317,7 +29314,7 @@
         <v>GRA</v>
       </c>
       <c r="L438" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M438" t="str">
         <f t="shared" si="53"/>
@@ -29338,7 +29335,7 @@
     </row>
     <row r="439" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C439" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D439">
         <f>IF($P439&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J439,Factors!$B$5:$B$61,0)),0))</f>
@@ -29365,7 +29362,7 @@
         <v>KKP</v>
       </c>
       <c r="L439" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M439" t="str">
         <f t="shared" si="53"/>
@@ -29386,7 +29383,7 @@
     </row>
     <row r="440" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C440" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D440">
         <f>IF($P440&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J440,Factors!$B$5:$B$61,0)),0))</f>
@@ -29413,7 +29410,7 @@
         <v>VGG</v>
       </c>
       <c r="L440" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M440" t="str">
         <f t="shared" si="53"/>
@@ -29434,7 +29431,7 @@
     </row>
     <row r="441" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C441" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D441">
         <f>IF($P441&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J441,Factors!$B$5:$B$61,0)),0))</f>
@@ -29461,7 +29458,7 @@
         <v>LWP</v>
       </c>
       <c r="L441" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M441" t="str">
         <f t="shared" si="53"/>
@@ -29482,7 +29479,7 @@
     </row>
     <row r="442" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C442" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D442">
         <f>IF($P442&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J442,Factors!$B$5:$B$61,0)),0))</f>
@@ -29509,7 +29506,7 @@
         <v>WVF</v>
       </c>
       <c r="L442" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M442" t="str">
         <f t="shared" si="53"/>
@@ -29530,7 +29527,7 @@
     </row>
     <row r="443" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C443" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D443">
         <f>IF($P443&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J443,Factors!$B$5:$B$61,0)),0))</f>
@@ -29557,7 +29554,7 @@
         <v>PLL</v>
       </c>
       <c r="L443" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M443" t="str">
         <f t="shared" si="53"/>
@@ -29578,7 +29575,7 @@
     </row>
     <row r="444" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C444" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D444">
         <f>IF($P444&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J444,Factors!$B$5:$B$61,0)),0))</f>
@@ -29605,7 +29602,7 @@
         <v>HFG</v>
       </c>
       <c r="L444" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M444" t="str">
         <f t="shared" si="53"/>
@@ -29626,7 +29623,7 @@
     </row>
     <row r="445" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C445" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D445">
         <f>IF($P445&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J445,Factors!$B$5:$B$61,0)),0))</f>
@@ -29653,7 +29650,7 @@
         <v>BNK</v>
       </c>
       <c r="L445" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M445" t="str">
         <f t="shared" si="53"/>
@@ -29674,7 +29671,7 @@
     </row>
     <row r="446" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C446" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D446">
         <f>IF($P446&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J446,Factors!$B$5:$B$61,0)),0))</f>
@@ -29701,7 +29698,7 @@
         <v>DEL</v>
       </c>
       <c r="L446" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="M446" t="str">
         <f t="shared" si="53"/>
@@ -29722,7 +29719,7 @@
     </row>
     <row r="447" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C447" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D447">
         <f>IF($P447&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J447,Factors!$B$5:$B$61,0)),0))</f>
@@ -29749,7 +29746,7 @@
         <v>WLF</v>
       </c>
       <c r="L447" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M447" t="str">
         <f t="shared" si="53"/>
@@ -29770,7 +29767,7 @@
     </row>
     <row r="448" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C448" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D448">
         <f>IF($P448&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J448,Factors!$B$5:$B$61,0)),0))</f>
@@ -29797,7 +29794,7 @@
         <v>USU</v>
       </c>
       <c r="L448" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M448" t="str">
         <f t="shared" si="53"/>
@@ -29818,7 +29815,7 @@
     </row>
     <row r="449" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C449" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D449">
         <f>IF($P449&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J449,Factors!$B$5:$B$61,0)),0))</f>
@@ -29845,7 +29842,7 @@
         <v>ESB</v>
       </c>
       <c r="L449" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M449" t="str">
         <f t="shared" si="53"/>
@@ -29866,7 +29863,7 @@
     </row>
     <row r="450" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C450" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D450">
         <f>IF($P450&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J450,Factors!$B$5:$B$61,0)),0))</f>
@@ -29893,7 +29890,7 @@
         <v>TVT</v>
       </c>
       <c r="L450" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M450" t="str">
         <f t="shared" si="53"/>
@@ -29914,7 +29911,7 @@
     </row>
     <row r="451" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C451" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D451">
         <f>IF($P451&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J451,Factors!$B$5:$B$61,0)),0))</f>
@@ -29941,7 +29938,7 @@
         <v>RRH</v>
       </c>
       <c r="L451" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M451" t="str">
         <f t="shared" si="53"/>
@@ -29962,7 +29959,7 @@
     </row>
     <row r="452" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C452" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D452">
         <f>IF($P452&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J452,Factors!$B$5:$B$61,0)),0))</f>
@@ -29989,7 +29986,7 @@
         <v>VKF</v>
       </c>
       <c r="L452" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M452" t="str">
         <f t="shared" si="53"/>
@@ -30010,7 +30007,7 @@
     </row>
     <row r="453" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C453" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D453">
         <f>IF($P453&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J453,Factors!$B$5:$B$61,0)),0))</f>
@@ -30037,7 +30034,7 @@
         <v>KOO</v>
       </c>
       <c r="L453" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M453" t="str">
         <f t="shared" si="53"/>
@@ -30058,7 +30055,7 @@
     </row>
     <row r="454" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C454" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D454">
         <f>IF($P454&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J454,Factors!$B$5:$B$61,0)),0))</f>
@@ -30085,7 +30082,7 @@
         <v>KOX</v>
       </c>
       <c r="L454" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M454" t="str">
         <f t="shared" si="53"/>
@@ -30106,7 +30103,7 @@
     </row>
     <row r="455" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C455" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D455">
         <f>IF($P455&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J455,Factors!$B$5:$B$61,0)),0))</f>
@@ -30133,7 +30130,7 @@
         <v>KAI</v>
       </c>
       <c r="L455" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M455" t="str">
         <f t="shared" si="53"/>
@@ -30154,7 +30151,7 @@
     </row>
     <row r="456" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C456" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D456">
         <f>IF($P456&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J456,Factors!$B$5:$B$61,0)),0))</f>
@@ -30181,7 +30178,7 @@
         <v>GRO</v>
       </c>
       <c r="L456" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M456" t="str">
         <f t="shared" ref="M456:M480" si="59">INDEX($AA$3:$AA$226,MATCH(K456,$Z$3:$Z$226,0))</f>
@@ -30202,7 +30199,7 @@
     </row>
     <row r="457" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C457" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D457">
         <f>IF($P457&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J457,Factors!$B$5:$B$61,0)),0))</f>
@@ -30229,7 +30226,7 @@
         <v>WDK</v>
       </c>
       <c r="L457" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M457" t="str">
         <f t="shared" si="59"/>
@@ -30250,7 +30247,7 @@
     </row>
     <row r="458" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C458" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D458">
         <f>IF($P458&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J458,Factors!$B$5:$B$61,0)),0))</f>
@@ -30277,7 +30274,7 @@
         <v>MAN</v>
       </c>
       <c r="L458" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M458" t="str">
         <f t="shared" si="59"/>
@@ -30298,7 +30295,7 @@
     </row>
     <row r="459" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C459" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D459">
         <f>IF($P459&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J459,Factors!$B$5:$B$61,0)),0))</f>
@@ -30325,7 +30322,7 @@
         <v>NLA</v>
       </c>
       <c r="L459" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M459" t="str">
         <f t="shared" si="59"/>
@@ -30346,7 +30343,7 @@
     </row>
     <row r="460" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C460" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D460">
         <v>96.25</v>
@@ -30369,7 +30366,7 @@
         <v>CLEARNO</v>
       </c>
       <c r="L460" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M460" t="e">
         <f t="shared" si="59"/>
@@ -30390,7 +30387,7 @@
     </row>
     <row r="461" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C461" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D461">
         <v>96.25</v>
@@ -30413,7 +30410,7 @@
         <v>CLECAMD</v>
       </c>
       <c r="L461" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M461" t="e">
         <f t="shared" si="59"/>
@@ -30434,7 +30431,7 @@
     </row>
     <row r="462" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C462" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D462">
         <v>96.25</v>
@@ -30457,7 +30454,7 @@
         <v>CLEDUVH</v>
       </c>
       <c r="L462" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M462" t="e">
         <f t="shared" si="59"/>
@@ -30478,7 +30475,7 @@
     </row>
     <row r="463" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C463" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D463">
         <v>96.25</v>
@@ -30501,7 +30498,7 @@
         <v>CLEGROO</v>
       </c>
       <c r="L463" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M463" t="e">
         <f t="shared" si="59"/>
@@ -30522,7 +30519,7 @@
     </row>
     <row r="464" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C464" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D464">
         <v>96.25</v>
@@ -30545,7 +30542,7 @@
         <v>CLEHEND</v>
       </c>
       <c r="L464" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="M464" t="e">
         <f t="shared" si="59"/>
@@ -30566,7 +30563,7 @@
     </row>
     <row r="465" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C465" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D465">
         <v>96.25</v>
@@ -30589,7 +30586,7 @@
         <v>CLEKEND</v>
       </c>
       <c r="L465" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="M465" t="e">
         <f t="shared" si="59"/>
@@ -30610,7 +30607,7 @@
     </row>
     <row r="466" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C466" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D466">
         <v>96.25</v>
@@ -30633,7 +30630,7 @@
         <v>CLEKOMA</v>
       </c>
       <c r="L466" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M466" t="e">
         <f t="shared" si="59"/>
@@ -30654,7 +30651,7 @@
     </row>
     <row r="467" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C467" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D467">
         <v>96.25</v>
@@ -30677,7 +30674,7 @@
         <v>CLEKRIE</v>
       </c>
       <c r="L467" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M467" t="e">
         <f t="shared" si="59"/>
@@ -30698,7 +30695,7 @@
     </row>
     <row r="468" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C468" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D468">
         <v>96.25</v>
@@ -30721,7 +30718,7 @@
         <v>CLELETH</v>
       </c>
       <c r="L468" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M468" t="e">
         <f t="shared" si="59"/>
@@ -30742,7 +30739,7 @@
     </row>
     <row r="469" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C469" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D469">
         <v>96.25</v>
@@ -30765,7 +30762,7 @@
         <v>CLEMAJU</v>
       </c>
       <c r="L469" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M469" t="e">
         <f t="shared" si="59"/>
@@ -30786,7 +30783,7 @@
     </row>
     <row r="470" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C470" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D470">
         <v>96.25</v>
@@ -30809,7 +30806,7 @@
         <v>CLEMATI</v>
       </c>
       <c r="L470" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M470" t="e">
         <f t="shared" si="59"/>
@@ -30830,7 +30827,7 @@
     </row>
     <row r="471" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C471" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D471">
         <v>96.25</v>
@@ -30853,7 +30850,7 @@
         <v>CLEMATL</v>
       </c>
       <c r="L471" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M471" t="e">
         <f t="shared" si="59"/>
@@ -30874,7 +30871,7 @@
     </row>
     <row r="472" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C472" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D472">
         <v>96.25</v>
@@ -30897,7 +30894,7 @@
         <v>CLETUTU</v>
       </c>
       <c r="L472" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="M472" t="e">
         <f t="shared" si="59"/>
@@ -30918,7 +30915,7 @@
     </row>
     <row r="473" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C473" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D473">
         <v>96.25</v>
@@ -30941,7 +30938,7 @@
         <v>CLEKUSI</v>
       </c>
       <c r="L473" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="M473" t="e">
         <f t="shared" si="59"/>
@@ -30962,7 +30959,7 @@
     </row>
     <row r="474" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C474" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D474">
         <v>96.25</v>
@@ -30985,7 +30982,7 @@
         <v>CLEMEDU</v>
       </c>
       <c r="L474" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M474" t="e">
         <f t="shared" si="59"/>
@@ -31006,7 +31003,7 @@
     </row>
     <row r="475" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C475" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D475">
         <v>96.25</v>
@@ -31029,7 +31026,7 @@
         <v>CLEWATE</v>
       </c>
       <c r="L475" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M475" t="e">
         <f t="shared" ref="M475" si="62">INDEX($AA$3:$AA$226,MATCH(K475,$Z$3:$Z$226,0))</f>
@@ -31050,7 +31047,7 @@
     </row>
     <row r="476" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C476" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D476">
         <f>IF($P476&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J476,Factors!$B$5:$B$61,0)),0))</f>
@@ -31077,7 +31074,7 @@
         <v>_FLAB-M</v>
       </c>
       <c r="L476" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="M476">
         <f t="shared" si="59"/>
@@ -31098,7 +31095,7 @@
     </row>
     <row r="477" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C477" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D477">
         <f>IF($P477&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J477,Factors!$B$5:$B$61,0)),0))</f>
@@ -31125,7 +31122,7 @@
         <v>_FLAB-P</v>
       </c>
       <c r="L477" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M477">
         <f t="shared" si="59"/>
@@ -31146,7 +31143,7 @@
     </row>
     <row r="478" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C478" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D478">
         <f>IF($P478&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J478,Factors!$B$5:$B$61,0)),0))</f>
@@ -31173,7 +31170,7 @@
         <v>_FLAB-S</v>
       </c>
       <c r="L478" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M478">
         <f t="shared" si="59"/>
@@ -31194,7 +31191,7 @@
     </row>
     <row r="479" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C479" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D479">
         <f>IF($P479&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J479,Factors!$B$5:$B$61,0)),0))</f>
@@ -31221,7 +31218,7 @@
         <v>_FLAB-T</v>
       </c>
       <c r="L479" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M479">
         <f t="shared" si="59"/>
@@ -31242,7 +31239,7 @@
     </row>
     <row r="480" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C480" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D480">
         <f>IF($P480&gt;0,0,IFERROR(INDEX(Factors!$C$5:$C$61,MATCH($J480,Factors!$B$5:$B$61,0)),0))</f>
@@ -31269,7 +31266,7 @@
         <v>METRANS</v>
       </c>
       <c r="L480" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M480">
         <f t="shared" si="59"/>
@@ -31315,24 +31312,24 @@
   <sheetData>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
+        <v>951</v>
+      </c>
+      <c r="E6" t="s">
         <v>952</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>953</v>
-      </c>
-      <c r="F6" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>954</v>
+      </c>
+      <c r="B7" t="s">
         <v>955</v>
       </c>
-      <c r="B7" t="s">
-        <v>956</v>
-      </c>
       <c r="C7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -31364,972 +31361,972 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.25">
       <c r="U1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="V1" t="s">
         <v>1191</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1192</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="2" spans="2:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="U2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W2" t="s">
         <v>1194</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="U3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="V3" t="s">
         <v>1196</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>1197</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="U4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="W4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="U5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="V5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="W5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="U6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="V6" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="W6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C7" t="s">
         <v>1152</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E7" t="s">
         <v>1153</v>
       </c>
-      <c r="D7" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1154</v>
       </c>
-      <c r="F7" t="s">
-        <v>1155</v>
-      </c>
       <c r="G7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H7" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="U7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="V7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="W7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F8" t="s">
         <v>1162</v>
       </c>
-      <c r="F8" t="s">
-        <v>1163</v>
-      </c>
       <c r="G8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="U8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V8" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="W8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="U9" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="V9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="W9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C10" t="s">
         <v>1183</v>
       </c>
-      <c r="C10" t="s">
-        <v>1184</v>
-      </c>
       <c r="U10" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="V10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="W10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C11" t="s">
         <v>1158</v>
       </c>
-      <c r="C11" t="s">
-        <v>1159</v>
-      </c>
       <c r="V11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="W11" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C12" t="s">
         <v>1160</v>
       </c>
-      <c r="C12" t="s">
-        <v>1161</v>
-      </c>
       <c r="V12" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="W14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V15" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="W15" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E16" t="s">
         <v>1164</v>
       </c>
-      <c r="D16" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>1165</v>
       </c>
-      <c r="F16" t="s">
-        <v>1166</v>
-      </c>
       <c r="V16" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C17" t="s">
         <v>1167</v>
       </c>
-      <c r="C17" t="s">
-        <v>1168</v>
-      </c>
       <c r="G17" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H17" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="V17" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="W17" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C18" t="s">
         <v>1169</v>
       </c>
-      <c r="C18" t="s">
-        <v>1170</v>
-      </c>
       <c r="G18" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H18" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="V18" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="W18" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V20" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="W20" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="W21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V22" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="W22" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="V23" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="W23" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="V24" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="W24" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V25" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="W25" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V26" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="W26" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V27" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W27" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V28" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W28" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V29" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="W29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V30" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="W30" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V31" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W31" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="V32" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W32" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="33" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V33" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="W33" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="34" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V34" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="W34" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="35" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V35" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W35" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="36" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V36" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="W36" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="37" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V37" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="W37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="38" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V38" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="W38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="39" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V39" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="W39" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="40" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V40" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="W40" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="41" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="W41" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="42" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V42" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="W42" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="43" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V43" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="W43" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="44" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V44" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="W44" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="45" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V45" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="W45" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="46" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V46" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="W46" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="47" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V47" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="W47" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="48" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V48" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="W48" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="49" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V49" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="W49" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="50" spans="22:23" x14ac:dyDescent="0.25">
       <c r="V50" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="W50" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="51" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W51" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="52" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W52" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="53" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W53" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="54" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W54" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="55" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W55" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="56" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W56" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="57" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W57" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="58" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W58" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="59" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W59" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="60" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W60" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="61" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W61" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="62" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W62" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="63" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W63" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="64" spans="22:23" x14ac:dyDescent="0.25">
       <c r="W64" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="65" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W65" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="66" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W66" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="67" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W67" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="68" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W68" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="69" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W69" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="70" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W70" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="71" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W71" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="72" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W72" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="73" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W73" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="74" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W74" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="75" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W75" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="76" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W76" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="77" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W77" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="78" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W78" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="79" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W79" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="80" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W80" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="81" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W81" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="82" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W82" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="83" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W83" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="84" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W84" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="85" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W85" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="86" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W86" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="87" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W87" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="88" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W88" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="89" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W89" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="90" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W90" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="91" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W91" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="92" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W92" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="93" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W93" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="94" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W94" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="95" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W95" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="96" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W96" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="97" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W97" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="98" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W98" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="99" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W99" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="100" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W100" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="101" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W101" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="102" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W102" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="103" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W103" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="104" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W104" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="105" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W105" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="106" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W106" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="107" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W107" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="108" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W108" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="109" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W109" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="110" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W110" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="111" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W111" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="112" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W112" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="113" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W113" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="114" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W114" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="115" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W115" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="116" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W116" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="117" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W117" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="118" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W118" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="119" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W119" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="120" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W120" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="121" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W121" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="122" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W122" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="123" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W123" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="124" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W124" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="125" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W125" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="126" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W126" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="127" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W127" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="128" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W128" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="129" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W129" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="130" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W130" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="131" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W131" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
   </sheetData>

--- a/EmissionFactors.xlsx
+++ b/EmissionFactors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE6185-5E8E-4AC0-BB12-6F1F48A97584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586687D1-37A5-498D-9CDE-92ECE995EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F7D82C8E-DCA0-4D7B-A715-D4A1F93CE55E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{F7D82C8E-DCA0-4D7B-A715-D4A1F93CE55E}"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="1" r:id="rId1"/>
@@ -4820,7 +4820,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,33 +5133,33 @@
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.03</v>
+      </c>
+      <c r="G10">
+        <v>0.15</v>
+      </c>
+      <c r="H10">
+        <v>2.6</v>
+      </c>
+      <c r="I10">
+        <v>0.04</v>
+      </c>
+      <c r="J10">
+        <v>0.12</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7068,8 +7068,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C1:AF480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="C355" sqref="C355"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11348,15 +11348,15 @@
       </c>
       <c r="E77">
         <f>IF($P77&gt;0,0,IFERROR(INDEX(Factors!$D$5:$D$61,MATCH($J77,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F77">
         <f>IF($P77&gt;0,0,IFERROR(INDEX(Factors!$E$5:$E$61,MATCH($J77,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G77">
         <f>IF(P77&gt;0,0,IFERROR(INDEX(Factors!$K$5:$K$61,MATCH(J77,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="9"/>
@@ -12975,15 +12975,15 @@
       </c>
       <c r="E109">
         <f>IF($P109&gt;0,0,IFERROR(INDEX(Factors!$D$5:$D$61,MATCH($J109,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F109">
         <f>IF($P109&gt;0,0,IFERROR(INDEX(Factors!$E$5:$E$61,MATCH($J109,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G109">
         <f>IF(P109&gt;0,0,IFERROR(INDEX(Factors!$K$5:$K$61,MATCH(J109,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="J109" t="str">
         <f t="shared" si="9"/>
@@ -14673,15 +14673,15 @@
       </c>
       <c r="E142">
         <f>IF($P142&gt;0,0,IFERROR(INDEX(Factors!$D$5:$D$61,MATCH($J142,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F142">
         <f>IF($P142&gt;0,0,IFERROR(INDEX(Factors!$E$5:$E$61,MATCH($J142,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G142">
         <f>IF(P142&gt;0,0,IFERROR(INDEX(Factors!$K$5:$K$61,MATCH(J142,Factors!$B$5:$B$61,0)),0))</f>
-        <v>0</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="16"/>
